--- a/STEP3IncomingData.xlsx
+++ b/STEP3IncomingData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -97,205 +97,301 @@
     <t>6401Basswood</t>
   </si>
   <si>
-    <t>WF Bus Credit AUTO PAY 240620 90469914333885 GUPTA,NEERAJ</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061424 YFDXJ2 Midway Inn LLC</t>
-  </si>
-  <si>
-    <t>ONLINE TRANSFER TO GUPTA N REF #IB0NJHQSPH EVERYDAY CHECKING MIDWAY REFRGTR PURCHASE LOWES CRD KODIAK</t>
-  </si>
-  <si>
-    <t>RECURRING PAYMENT AUTHORIZED ON 06/12 Spectrum 855-707-7328 MO S584164550672936 CARD 4162</t>
-  </si>
-  <si>
-    <t>BUSINESS TO BUSINESS ACH CITY OFARLINGTON UTILITYIVR 240610 6060306 MIDWAY INN *LLC</t>
-  </si>
-  <si>
-    <t>ONLINE TRANSFER TO GUPTA N REF #IB0NHL3HPN EVERYDAY CHECKING MIDWAY EXPENSES MAY THRU ONEPLUS PM</t>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VK6BX TRULO MONTHLY PM FEE MIDWAY INN</t>
+  </si>
+  <si>
+    <t>RECURRING PAYMENT AUTHORIZED ON 07/29 DNH*GODADDY#321752 480-5058855 AZ S304211626202408 CARD 4162</t>
+  </si>
+  <si>
+    <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 07/30 Ref#20240730021000021P1BRJPC00520076928</t>
+  </si>
+  <si>
+    <t>CHECK # 1011</t>
+  </si>
+  <si>
+    <t>WF Bus Credit AUTO PAY 240721 90469914333885 GUPTA,NEERAJ</t>
+  </si>
+  <si>
+    <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 07/21 Ref#20240721021000021P1BRJPC00510064841</t>
+  </si>
+  <si>
+    <t>RECURRING PAYMENT AUTHORIZED ON 07/14 DNH*GODADDY#318938 480-5058855 AZ S584196656484877 CARD 4162</t>
+  </si>
+  <si>
+    <t>RECURRING PAYMENT AUTHORIZED ON 07/12 Spectrum 855-707-7328 MO S584194554099969 CARD 4162</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH CITY OFARLINGTON UTILITYIVR 240710 5743289 MIDWAY INN *LLC</t>
   </si>
   <si>
     <t>BUSINESS TO BUSINESS ACH Lument7313 ACH 490011466</t>
   </si>
   <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDPY8PQ TRULO MONTHLY PM FEE MIDWAY INN</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061124 91HNJ2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>SERVICEMAC PMT MTGE PAYMT 060124 5114002632 PARUL GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQFJ9V 108MV TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061124 B1HNJ2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0NHDZ6KM BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
-  </si>
-  <si>
-    <t>NEWREZ-SHELLPOIN ACH PMT 240531 0683624456 GUPTA PARUL</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQHBFB 116MV TO TRULO PROPERTY MANAGEMENT</t>
+    <t>PURCHASE AUTHORIZED ON 07/06 Mobimatter Abu Dhabi ARE S464188635540782 CARD 4162</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ5FSZ3 TRULO MONTHLY PM FEE MIDWAY INN</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002632 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VCNRL 108MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002632 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ58NCB 108MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>NEWREZ-SHELLPOIN ACH PMT 240731 0683624456 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2V3PQ8 116MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 4TRBL2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0NSR3SBH BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
+  </si>
+  <si>
+    <t>NEWREZ-SHELLPOIN ACH PMT 240630 0683624456 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ6F5RZ 116MV TO TRULO PROPERTY MANAGEMENT</t>
   </si>
   <si>
     <t>INTEREST PAYMENT</t>
   </si>
   <si>
-    <t>OnePlus Realty G SIGONFILE 061124 C1HNJ2 Pagoda Homes (Newton)</t>
-  </si>
-  <si>
-    <t>NEWREZ-SHELLPOIN ACH PMT 240531 0683856942 GUPTA PARUL</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQJP56 NEWTON TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>FOREMOST EPM PYMT 240616 3810091873545 VIVEK JADHAV</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061124 F1HNJ2 Pagoda Homes LLC (Rose</t>
-  </si>
-  <si>
-    <t>PENNYMAC CASH Jun 24 8028350915-0054 1316 Rosemon</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDPX8HZ ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061124 81HNJ2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>PENNYMAC CASH Jun 24 8028352704-0054 104 Meadow</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQ85ZP 104MV TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0NHDZ6KM BUSINESS CHECKING 116 MV CHK TO SAV</t>
-  </si>
-  <si>
-    <t>ONLINE TRANSFER FROM GUPTA P REF #IB0NG473XQ PLATINUM SAVINGS FUNDING PARKS</t>
-  </si>
-  <si>
-    <t>OVERDRAFT FEE FOR A TRANSACTION POSTED ON 06/03 $733.95 SERVICEMAC PMT MTGE PAYMT 060124 5114002634 PARUL GUPTA</t>
-  </si>
-  <si>
-    <t>SERVICEMAC PMT MTGE PAYMT 060124 5114002634 PARUL GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQ6CMD PARKS TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061124 D1HNJ2 Pagoda Homes LLC (108</t>
-  </si>
-  <si>
-    <t>FREEDOM MTG PYMTS 060324 0129201927 NEERAJ GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQKR6D TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061124 61HNJ2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>JPMORGAN CHASE CHASE ACH 060124 4027425045 MEADOW VIEW HOMES LLC</t>
-  </si>
-  <si>
-    <t>WT FED#06040 BANK 7 /FTR/BNF=Eddy Estates LLC SRF# OW00004593387892 TRN#240613133471 RFB# OW00004593387892</t>
-  </si>
-  <si>
-    <t>WIRE TRANS SVC CHARGE - SEQUENCE: 240613133471 SRF# OW00004593387892 TRN#240613133471 RFB# OW00004593387892</t>
-  </si>
-  <si>
-    <t>ONLINE TRANSFER TO PAGODA HOMES LLC REF #IB0NG473XQ BUSINESS CHECKING FUNDING PARKS</t>
-  </si>
-  <si>
-    <t>SERVICEMAC PMT MTGE PAYMT 060124 5114002633 PARUL GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQ3VW7 BREWER TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 061124 J1HNJ2 Pagoda Homes (Wintergr</t>
-  </si>
-  <si>
-    <t>PENNYMAC CASH Jun 24 8028351602-0053 vivek jadhav</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NDQ8K3K WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Online Transfer from CHK ...6571 transaction#: 20967326607</t>
-  </si>
-  <si>
-    <t>Online Transfer to CHK ...5031 transaction#: 20967326607 06/03</t>
-  </si>
-  <si>
-    <t>Online Payment 20926681363 To CHASE HOME MORTGAGE 06/28</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240611 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000015125058 EED:240612   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1645125058TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240610 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018389590 EED:240611   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1638389590TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240610 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018389587 EED:240611   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1638389587TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240610 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018389591 EED:240611   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1638389591TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:061124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088253631 EED:240611   IND ID:71HNJ2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 1638253631TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240603 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016950664 EED:240604   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1566950664TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240603 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016950750 EED:240604   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1566950750TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240603 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016896172 EED:240604   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1566896172TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240603 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016896194 EED:240604   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1566896194TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:060124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000026773208 EED:240603   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 1556773208TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:061124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088253633 EED:240611   IND ID:H1HNJ2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1638253633TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Jun 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000023691162 EED:240603   IND ID:8028351082-0054              IND NAME:8604 Wagon TRN: 1553691162TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:061124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088253632 EED:240611   IND ID:G1HNJ2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1638253632TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:060124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000014238430 EED:240603   IND ID:                             IND NAME:PARUL GUPTA TRN: 1554238430TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240611 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000015125053 EED:240612   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1645125053TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240610 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018389588 EED:240611   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1638389588TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:061124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088253630 EED:240611   IND ID:51HNJ2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 1638253630TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:TARA ENERGY            ORIG ID:0000267208 DESC DATE:240607 CO ENTRY DESCR:UTILITIES SEC:WEB    TRACE#:021000021237423 EED:240607   IND ID:5010272                      IND NAME:NEERAJ *GUPTA                                                                                                866-438-8272 TRN: 1591237423TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:TARA ENERGY            ORIG ID:0000267208 DESC DATE:240604 CO ENTRY DESCR:UTILITIES SEC:WEB    TRACE#:021000021882489 EED:240604   IND ID:3925259                      IND NAME:NEERAJ *GUPTA                                                                                                866-438-8272 TRN: 1561882489TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240531 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000089777557 EED:240603   IND ID:                             IND NAME:JADHAV VIVEK TRN: 1559777557TC</t>
+    <t>NEWREZ-SHELLPOIN ACH PMT 240731 0683856942 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VKXGK NEWTON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 073124 RZKLM2 Pagoda Homes (Newton)</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 5TRBL2 Pagoda Homes (Newton)</t>
+  </si>
+  <si>
+    <t>NEWREZ-SHELLPOIN ACH PMT 240630 0683856942 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ6T9P2 NEWTON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Aug 24 8028350915-0056 1316 Rosemon</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TXGGY ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>FOREMOST EPM PYMT 240726 3810091873545 VIVEK JADHAV</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 7TRBL2 Pagoda Homes LLC (Rose</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Jul 24 8028350915-0055 1316 Rosemon</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ54Y3C ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Aug 24 8028352704-0056 104 Meadow</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VMZ9B 104MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 3TRBL2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Jul 24 8028352704-0055 104 Meadow</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ55Y6Q 104MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0NSR3SBH BUSINESS CHECKING 116 MV CHK TO SAV</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002634 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TT3W6 PARKS TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002634 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ5P3GX PARKS TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>FREEDOM MTG PYMTS 080124 0129201927 NEERAJ GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VHFSF TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 6TRBL2 Pagoda Homes LLC (108</t>
+  </si>
+  <si>
+    <t>FREEDOM MTG PYMTS 070124 0129201927 NEERAJ GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ59FR9 TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE CHASE ACH 080124 4027425045 MEADOW VIEW HOMES LLC</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 1TRBL2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE CHASE ACH 070124 4027425045 MEADOW VIEW HOMES LLC</t>
+  </si>
+  <si>
+    <t>ZELLE TO PROPERTY MANAGEMENT TRULO ON 07/12 REF #RP0SF2YHM4 ATTORNEY FEE WIRE THRU CHASE FOR CHAKRI</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA N REF #IB0NTSRLJC EVERYDAY CHECKING CHAKRI WIRE XFER FEE</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0NTSQSGR EVERYDAY CHECKING CHAKRI PAID ATTORNEY FEE</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0NTSQG3V EVERYDAY CHECKING CHAKRI INT JULY</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA N REF #IB0NT79WFZ EVERYDAY CHECKING CHAKRI AND SRAVYA</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA N REF #IB0NT74JWP EVERYDAY CHECKING CHAKRADER AND SRAVYA</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002633 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TWZK5 BREWER TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 073124 PZKLM2 Neeraj Gupta (Brewer)</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 0TRBL2 Neeraj Gupta (Brewer)</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002633 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ59Q3N BREWER TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Aug 24 8028351602-0055 vivek jadhav</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2V8M6F WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 071024 BTRBL2 Pagoda Homes (Wintergr</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Jul 24 8028351602-0054 vivek jadhav</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ68C2D WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Online Transfer from CHK ...6571 transaction#: 21572783954</t>
+  </si>
+  <si>
+    <t>Zelle payment from TRULO PROPERTY MANAGEMENT LLC 21572866504</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240728 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000024987396 EED:240729   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 2114987396TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240628 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000020238031 EED:240701   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 1830238031TC</t>
+  </si>
+  <si>
+    <t>Online Transfer to CHK ...5031 transaction#: 21572783954 07/31</t>
+  </si>
+  <si>
+    <t>Online Payment 21229559529 To CHASE HOME MORTGAGE 07/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK 2032  </t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:VRBO                   ORIG ID:9872667522 DESC DATE:240719 CO ENTRY DESCR:PAYMENT   SEC:PPD    TRACE#:031101111714572 EED:240722   IND ID:                             IND NAME:Neeraj Gupta TRN: 2041714572TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411692 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411692TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411685 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411685TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411691 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411691TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411687 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411687TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315743 EED:240710   IND ID:2TRBL2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 1928315743TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010929691 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850929691TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010926310 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850926310TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010926327 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850926327TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010929696 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850929696TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:080124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000029832472 EED:240801   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 2149832472TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:073124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926084765326 EED:240731   IND ID:QZKLM2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2134765326TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:070124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000020928596 EED:240701   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 1830928596TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Aug 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000021437718 EED:240801   IND ID:8028351082-0056              IND NAME:8604 Wagon TRN: 2141437718TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315745 EED:240710   IND ID:9TRBL2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1928315745TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Jul 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000020542007 EED:240701   IND ID:8028351082-0055              IND NAME:8604 Wagon TRN: 1830542007TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:080124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000019427854 EED:240801   IND ID:                             IND NAME:PARUL GUPTA TRN: 2149427854TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315744 EED:240710   IND ID:8TRBL2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1928315744TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:070124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000010669125 EED:240701   IND ID:                             IND NAME:PARUL GUPTA TRN: 1830669125TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240731 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000083659872 EED:240801   IND ID:                             IND NAME:JADHAV VIVEK TRN: 2143659872TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315742 EED:240710   IND ID:ZSRBL2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 1928315742TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240630 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000083248476 EED:240701   IND ID:                             IND NAME:JADHAV VIVEK TRN: 1833248476TC</t>
   </si>
 </sst>
 </file>
@@ -657,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45463</v>
+        <v>45505</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>-804.95</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -705,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>45457</v>
+        <v>45503</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="E3">
-        <v>28291.43</v>
+        <v>-204.42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -722,13 +818,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>45456</v>
+        <v>45503</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4">
-        <v>-246</v>
+        <v>17028.44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -739,13 +835,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>45456</v>
+        <v>45496</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>-77.28</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -756,13 +852,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>45454</v>
+        <v>45495</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6">
-        <v>-760.8</v>
+        <v>-136.07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -773,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45453</v>
+        <v>45495</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7">
-        <v>-4001</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -790,13 +886,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>45449</v>
+        <v>45488</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8">
-        <v>-9368.889999999999</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -807,690 +903,690 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>45446</v>
+        <v>45488</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="E9">
-        <v>-1500</v>
+        <v>-77.28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
       <c r="E10">
-        <v>1850</v>
+        <v>-956.2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>45446</v>
+        <v>45481</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="E11">
-        <v>-748.9299999999999</v>
+        <v>-9212.299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>45446</v>
+        <v>45481</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
       </c>
       <c r="E12">
-        <v>-75</v>
+        <v>-11.63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>45454</v>
+        <v>45474</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13">
-        <v>99</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>45453</v>
+        <v>45505</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="E14">
-        <v>-150</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15">
-        <v>-456.02</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>45446</v>
+        <v>45474</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
       <c r="E16">
-        <v>-75</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
       <c r="E17">
-        <v>0.02</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>45454</v>
+        <v>45505</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18">
-        <v>1593.5</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19">
-        <v>-563.38</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>45446</v>
+        <v>45483</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
       </c>
       <c r="E20">
-        <v>-75</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>45460</v>
+        <v>45482</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
       </c>
       <c r="E21">
-        <v>-356.49</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>45454</v>
+        <v>45474</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
       </c>
       <c r="E22">
-        <v>3878</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>45446</v>
+        <v>45474</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23">
-        <v>-963.16</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>45446</v>
+        <v>45504</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
       <c r="E24">
-        <v>-150</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>45454</v>
+        <v>45505</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25">
-        <v>1700</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
       <c r="E26">
-        <v>-730.2</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
-        <v>45446</v>
+        <v>45504</v>
       </c>
       <c r="D27" t="s">
         <v>52</v>
       </c>
       <c r="E27">
-        <v>-75</v>
+        <v>1748.17</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2">
-        <v>45471</v>
+        <v>45483</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>45453</v>
+        <v>45474</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29">
-        <v>150</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
-        <v>45448</v>
+        <v>45474</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>2500</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
-        <v>45447</v>
+        <v>45506</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>-35</v>
+        <v>-963.16</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32">
-        <v>-733.95</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
-        <v>45446</v>
+        <v>45502</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>-75</v>
+        <v>-414</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>45454</v>
+        <v>45483</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34">
-        <v>1525</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>45446</v>
+        <v>45475</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>-726.97</v>
+        <v>-963.16</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
-        <v>45446</v>
+        <v>45474</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36">
-        <v>-75</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>45471</v>
+        <v>45506</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E37">
-        <v>0.06</v>
+        <v>-730.2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>45454</v>
+        <v>45505</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38">
-        <v>2500</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>45446</v>
+        <v>45483</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39">
-        <v>-947.72</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>0.24</v>
+        <v>-730.2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E41">
-        <v>31.42</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
-        <v>45456</v>
+        <v>45504</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E42">
-        <v>-98000</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
-        <v>45456</v>
+        <v>45482</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43">
-        <v>-25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
-        <v>45448</v>
+        <v>45505</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>-2500</v>
+        <v>-733.95</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>-711.48</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2">
-        <v>45446</v>
+        <v>45474</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E46">
-        <v>-75</v>
+        <v>-733.95</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
-        <v>45454</v>
+        <v>45474</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47">
-        <v>1545.21</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E48">
-        <v>-694.01</v>
+        <v>-726.97</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>-75</v>
@@ -1498,392 +1594,936 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>45446</v>
+        <v>45483</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <v>500</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>45446</v>
+        <v>45474</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E51">
-        <v>-500</v>
+        <v>-726.97</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E52">
-        <v>-1118.25</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2">
-        <v>45455</v>
+        <v>45505</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E53">
-        <v>-128.12</v>
+        <v>-947.72</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2">
-        <v>45454</v>
+        <v>45504</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E54">
-        <v>-55.45</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
-        <v>45454</v>
+        <v>45483</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E55">
-        <v>-55.91</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2">
-        <v>45454</v>
+        <v>45474</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E56">
-        <v>-69.43000000000001</v>
+        <v>-947.72</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2">
-        <v>45454</v>
+        <v>45504</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E57">
-        <v>1190.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2">
-        <v>45447</v>
+        <v>45504</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E58">
-        <v>-74.95</v>
+        <v>158.77</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C59" s="2">
-        <v>45447</v>
+        <v>45485</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
       </c>
       <c r="E59">
-        <v>-76.48999999999999</v>
+        <v>-450</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>290</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C60" s="2">
-        <v>45447</v>
+        <v>45485</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
       </c>
       <c r="E60">
-        <v>-100.54</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2">
-        <v>45447</v>
+        <v>45485</v>
       </c>
       <c r="D61" t="s">
         <v>82</v>
       </c>
       <c r="E61">
-        <v>-104.94</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>594</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C62" s="2">
-        <v>45446</v>
+        <v>45485</v>
       </c>
       <c r="D62" t="s">
         <v>83</v>
       </c>
       <c r="E62">
-        <v>-1383.06</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>703</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
-        <v>45454</v>
+        <v>45483</v>
       </c>
       <c r="D63" t="s">
         <v>84</v>
       </c>
       <c r="E63">
-        <v>1834.75</v>
+        <v>-135000</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>704</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C64" s="2">
-        <v>45446</v>
+        <v>45483</v>
       </c>
       <c r="D64" t="s">
         <v>85</v>
       </c>
       <c r="E64">
-        <v>-843.79</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>826</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C65" s="2">
-        <v>45454</v>
+        <v>45505</v>
       </c>
       <c r="D65" t="s">
         <v>86</v>
       </c>
       <c r="E65">
-        <v>1510</v>
+        <v>-711.48</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>827</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D66" t="s">
         <v>87</v>
       </c>
       <c r="E66">
-        <v>-675.63</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>904</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C67" s="2">
-        <v>45455</v>
+        <v>45504</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
       </c>
       <c r="E67">
-        <v>-12.07</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>905</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C68" s="2">
-        <v>45454</v>
+        <v>45483</v>
       </c>
       <c r="D68" t="s">
         <v>89</v>
       </c>
       <c r="E68">
-        <v>-46.18</v>
+        <v>1823.14</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>906</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2">
-        <v>45454</v>
+        <v>45474</v>
       </c>
       <c r="D69" t="s">
         <v>90</v>
       </c>
       <c r="E69">
-        <v>3140.56</v>
+        <v>-711.48</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>907</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C70" s="2">
-        <v>45450</v>
+        <v>45474</v>
       </c>
       <c r="D70" t="s">
         <v>91</v>
       </c>
       <c r="E70">
-        <v>-190.78</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>908</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C71" s="2">
-        <v>45447</v>
+        <v>45506</v>
       </c>
       <c r="D71" t="s">
         <v>92</v>
       </c>
       <c r="E71">
-        <v>-22.15</v>
+        <v>-694.01</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>909</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C72" s="2">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="D72" t="s">
         <v>93</v>
       </c>
       <c r="E72">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D73" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45475</v>
+      </c>
+      <c r="D74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74">
+        <v>-694.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45504</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45504</v>
+      </c>
+      <c r="D77" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45502</v>
+      </c>
+      <c r="D78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78">
+        <v>-358.39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>-96.29000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45504</v>
+      </c>
+      <c r="D80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80">
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>274</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45504</v>
+      </c>
+      <c r="D81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81">
+        <v>-1118.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>275</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45502</v>
+      </c>
+      <c r="D82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>276</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45495</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83">
+        <v>1699.24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>277</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84">
+        <v>-46.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>278</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85">
+        <v>-49.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>279</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86">
+        <v>-70.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>280</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87">
+        <v>-134.46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>281</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D88" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88">
+        <v>1504.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45476</v>
+      </c>
+      <c r="D89" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89">
+        <v>-51.49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>283</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45476</v>
+      </c>
+      <c r="D90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90">
+        <v>-95.72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>284</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45476</v>
+      </c>
+      <c r="D91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91">
+        <v>-143.42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45476</v>
+      </c>
+      <c r="D92" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92">
+        <v>-148.43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>592</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45505</v>
+      </c>
+      <c r="D93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93">
+        <v>-1383.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>593</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45504</v>
+      </c>
+      <c r="D94" t="s">
+        <v>115</v>
+      </c>
+      <c r="E94">
+        <v>6414.53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>594</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95">
+        <v>-1383.06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>695</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45505</v>
+      </c>
+      <c r="D96" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96">
+        <v>-843.79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>696</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>697</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98">
+        <v>-843.79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>814</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45505</v>
+      </c>
+      <c r="D99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99">
+        <v>-675.63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>815</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D100" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>816</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D101" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101">
+        <v>-675.63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>889</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45505</v>
+      </c>
+      <c r="D102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102">
+        <v>-1383.06</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>890</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>891</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D104" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104">
         <v>-1383.06</v>
       </c>
     </row>

--- a/STEP3IncomingData.xlsx
+++ b/STEP3IncomingData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -34,9 +34,15 @@
     <t>Midway</t>
   </si>
   <si>
+    <t>1905Morning</t>
+  </si>
+  <si>
     <t>108Meadow</t>
   </si>
   <si>
+    <t>MeadowSecurity</t>
+  </si>
+  <si>
     <t>116Meadow</t>
   </si>
   <si>
@@ -88,187 +94,598 @@
     <t>8604Wagon</t>
   </si>
   <si>
+    <t>2224Heatherton</t>
+  </si>
+  <si>
     <t>114Sidney</t>
   </si>
   <si>
     <t>6401Basswood</t>
   </si>
   <si>
-    <t>CHECK # 1015</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 101624 Y6XMS2 Midway Inn LLC</t>
-  </si>
-  <si>
-    <t>RECURRING PAYMENT AUTHORIZED ON 10/12 Spectrum 855-707-7328 MO S304286542466171 CARD 4162</t>
-  </si>
-  <si>
-    <t>BUSINESS TO BUSINESS ACH CITY OFARLINGTON UTILITYIVR 241009 6182867 MIDWAY INN *LLC</t>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS28XG3 PLATINUM SAVINGS MIDWAY 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase Ext Trnsfr 241227 23169513880 ONEPLUS REALTY GROUP L</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX7200 N. GUPTA REF #F20QQDFQM6 MIDWAY EXPENSES JUN TO NOV 2024</t>
+  </si>
+  <si>
+    <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 12/25 Ref#20241225021000021P1BRJPC07360049848</t>
+  </si>
+  <si>
+    <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 12/24 Ref#20241224021000021P1BRJPC01680117057</t>
+  </si>
+  <si>
+    <t>WF Bus Credit AUTO PAY 241220 90469919632331 GUPTA,NEERAJ</t>
+  </si>
+  <si>
+    <t>RECURRING PAYMENT AUTHORIZED ON 12/12 Spectrum 855-707-7328 MO S304347569918450 CARD 4162</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH CITY OFARLINGTON UTILITYIVR 241210 7605690 MIDWAY INN *LLC</t>
   </si>
   <si>
     <t>BUSINESS TO BUSINESS ACH Lument7313 ACH 490011466</t>
   </si>
   <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQNXXYK TRULO MONTHLY PM FEE MIDWAY INN</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 100924 JDV1S2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>SERVICEMAC PMT MTGE PAYMT 100124 5114002632 PARUL GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQP9XDZ 108MV TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0PTHX5G4 BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 100924 KDV1S2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>NEWREZ-SHELLPOIN ACH PMT 240930 0683624456 GUPTA PARUL</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPBN9B 116MV TO TRULO PROPERTY MANAGEMENT</t>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFZG5B5 TRULO MONTHLY PM FEE MIDWAY INN</t>
+  </si>
+  <si>
+    <t>WF Bus Credit AUTO PAY 241120 90469919632331 GUPTA,NEERAJ</t>
+  </si>
+  <si>
+    <t>RECURRING PAYMENT AUTHORIZED ON 11/18 Microsoft*Microsof 425-6816830 WA S304323443194511 CARD 4162</t>
+  </si>
+  <si>
+    <t>RECURRING PAYMENT AUTHORIZED ON 11/12 Spectrum 855-707-7328 MO S384317554491444 CARD 4162</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH CITY OFARLINGTON UTILITYIVR 241111 7007160 MIDWAY INN *LLC</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3Y7LJN TRULO MONTHLY PM FEE MIDWAY INN</t>
+  </si>
+  <si>
+    <t>BILL PAY Eddy Account 9189321 ON-LINE xxxx xxxxxxxxxx xroup ON 12-06</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA P REF #IB0QHS7VGW PLATINUM SAVINGS EDDY ESTATES MORTGAGE</t>
+  </si>
+  <si>
+    <t>BILL PAY Eddy Account 9189321 ON-LINE xxxx xxxxxxxxxx xroup ON 11-05</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA P REF #IB0Q559RHZ PLATINUM SAVINGS EDDY ESTATES MORTGAGE OCT NOV</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QR6WYKV BUSINESS CHECKING PROPERTY TAX 2024 116MV</t>
+  </si>
+  <si>
+    <t>COLLIN COUNTY, T PAYMENT 241226 100314067520 COLLIN COUNTY, TX PROP</t>
+  </si>
+  <si>
+    <t>COLLIN COUNTY, T PAYMENT 241226 100314067672 COLLIN COUNTY, TX PROP</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA P REF #IB0QQ5NND5 PLATINUM SAVINGS MV108 OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121124 CC05X2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 120124 5114002632 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFYM9L9 108MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 110124 5114002632 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3Y6HXT 108MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS6M5DR PLATINUM SAVINGS BRIANHILL 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS6JWBQ PLATINUM SAVINGS RIVERSIDE 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS5PVTF PLATINUM SAVINGS SIDNEY 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS5MZQV PLATINUM SAVINGS WAGON8604 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>Instant Pmt from MEADOW VIEW HOMES LLC on 12/31 Ref#20241231021000021P1BRJPC02640084020</t>
+  </si>
+  <si>
+    <t>Instant Pmt from MEADOW VIEW HOMES LLC on 12/31 Ref#20241231021000021P1BRJPC02640077891</t>
+  </si>
+  <si>
+    <t>Instant Pmt from MEADOW VIEW HOMES LLC on 12/31 Ref#20241231021000021P1BRJPC02640063059</t>
+  </si>
+  <si>
+    <t>Instant Pmt from MEADOW VIEW HOMES LLC on 12/31 Ref#20241231021000021P1BRJPC02160061084</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS27NGC PLATINUM SAVINGS MV116 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO MEADOW VIEW HOMES LLC REF #IB0QR6WYKV BUSINESS CHECKING PROPERTY TAX 2024 116MV</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121124 DC05X2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0QJTX3Q7 BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
+  </si>
+  <si>
+    <t>NEWREZ-SHELLPOIN ACH PMT 241130 0683624456 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFYZ42Y 116MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 111324 PCYBV2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0Q6V3X3Q BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
+  </si>
+  <si>
+    <t>NEWREZ-SHELLPOIN ACH PMT 241031 0683624456 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3XP9KW 116MV TO TRULO PROPERTY MANAGEMENT</t>
   </si>
   <si>
     <t>INTEREST PAYMENT</t>
   </si>
   <si>
-    <t>OnePlus Realty G SIGONFILE 100924 LDV1S2 Pagoda Homes (Newton)</t>
-  </si>
-  <si>
-    <t>NEWREZ-SHELLPOIN ACH PMT 240930 0683856942 GUPTA PARUL</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPKTL2 NEWTON TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>FOREMOST EPM PYMT 241020 3810091873545 VIVEK JADHAV</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 100924 NDV1S2 Pagoda Homes LLC (Rose</t>
-  </si>
-  <si>
-    <t>PENNYMAC CASH Oct 24 8028350915-0058 1316 Rosemon</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPLGDL ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 100924 HDV1S2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>PENNYMAC CASH Oct 24 8028352704-0058 104 Meadow</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPDX63 104MV TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0PTHX5G4 BUSINESS CHECKING 116 MV CHK TO SAV</t>
-  </si>
-  <si>
-    <t>SERVICEMAC PMT MTGE PAYMT 100124 5114002634 PARUL GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPJS3X PARKS TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 100924 MDV1S2 Pagoda Homes LLC (108</t>
-  </si>
-  <si>
-    <t>FREEDOM MTG PYMTS 100124 0129201927 NEERAJ GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPDNCB TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 100924 GDV1S2 Meadow View Homes LLC</t>
-  </si>
-  <si>
-    <t>JPMORGAN CHASE CHASE ACH 100124 4027425045 MEADOW VIEW HOMES LLC</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 101624 S6XMS2 Neeraj Gupta (Brewer)</t>
-  </si>
-  <si>
-    <t>SERVICEMAC PMT MTGE PAYMT 100124 5114002633 PARUL GUPTA</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPNHQT BREWER TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OnePlus Realty G SIGONFILE 100924 RDV1S2 Pagoda Homes (Wintergr</t>
-  </si>
-  <si>
-    <t>PENNYMAC CASH Oct 24 8028351602-0057 vivek jadhav</t>
-  </si>
-  <si>
-    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0PQPGKNG WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:241028 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000028217798 EED:241029   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 3038217798TC</t>
-  </si>
-  <si>
-    <t>Online Payment 22216703094 To CHASE HOME MORTGAGE 10/31</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:101624 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926082335932 EED:241016   IND ID:V6XMS2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 2902335932TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241004 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016768519 EED:241007   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2816768519TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241004 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016768516 EED:241007   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2816768516TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241004 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016768520 EED:241007   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2816768520TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:241001 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017867727 EED:241002   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2767867727TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:241001 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017867759 EED:241002   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2767867759TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:241001 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017867686 EED:241002   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2767867686TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:JPMORGAN CHASE   CO ENTRY DESCR:CHASE ACH  SEC:PPD                        ORIG ID:1000008113</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:101624 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926082335931 EED:241016   IND ID:T6XMS2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2902335931TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:100124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000022558845 EED:241001   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 2752558845TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:100924 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088493097 EED:241009   IND ID:QDV1S2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2838493097TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Oct 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000027899830 EED:241001   IND ID:8028351082-0058              IND NAME:8604 Wagon TRN: 2757899830TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:SERVICEMAC PMT   CO ENTRY DESCR:MTGE PAYMT SEC:PPD                        ORIG ID:4823070213</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:100924 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088493096 EED:241009   IND ID:PDV1S2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2838493096TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:100124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000011280225 EED:241001   IND ID:                             IND NAME:PARUL GUPTA TRN: 2751280225TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:NEWREZ-SHELLPOIN CO ENTRY DESCR:ACH PMT    SEC:PPD                        ORIG ID:6371542226</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:102224 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085033888 EED:241022   IND ID:XVKZS2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 2965033888TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241004 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016768518 EED:241007   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2816768518TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240930 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000088965181 EED:241001   IND ID:                             IND NAME:JADHAV VIVEK TRN: 2758965181TC</t>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QQ5WP3C PLATINUM SAVINGS REVERSAL RIVERSIDE OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA P REF #IB0QQ5SXVN PLATINUM SAVINGS RIVERSIDE OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS28BBS PLATINUM SAVINGS NEWTON 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH County of Dallas E-Check 122624 000000010369142 Pagoda Homes LLC</t>
+  </si>
+  <si>
+    <t>NEWREZ-SHELLPOIN ACH PMT 241130 0683856942 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFZ2FQZ NEWTON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 111324 QCYBV2 Pagoda Homes (Newton)</t>
+  </si>
+  <si>
+    <t>NEWREZ-SHELLPOIN ACH PMT 241031 0683856942 GUPTA PARUL</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3Y4NVF NEWTON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS28GM6 PLATINUM SAVINGS ROSEMON 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH County of Dallas E-Check 122624 000000010369148 Pagoda Homes LLC</t>
+  </si>
+  <si>
+    <t>CARROLLTONFARMER CARROLLTON 241226 931400423020385 PAGODA HOMES LLC</t>
+  </si>
+  <si>
+    <t>TAX PAYMENT SERV TAX PAYMEN 241226 931400289948753 PAGODA HOMES LLC</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121124 GC05X2 Pagoda Homes LLC (Rose</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Dec 24 8028350915-0060 1316 Rosemon</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFZ8H57 ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 111324 SCYBV2 Pagoda Homes LLC (Rose</t>
+  </si>
+  <si>
+    <t>MOBILE DEPOSIT : REF NUMBER :509120492673</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Nov 24 8028350915-0059 1316 Rosemon</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3XN8ZW ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS27D2X PLATINUM SAVINGS MV104 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>COLLIN COUNTY, T PAYMENT 241226 100314067864 COLLIN COUNTY, TX PROP</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121124 BC05X2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Dec 24 8028352704-0060 104 Meadow</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFZCYHM 104MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Nov 24 8028352704-0059 104 Meadow</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3XHBGY 104MV TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS283P3 PLATINUM SAVINGS MV116 SAV 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0QJTX3Q7 BUSINESS CHECKING 116 MV CHK TO SAV</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0Q6V3X3Q BUSINESS CHECKING 116 MV CHK TO SAV</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH County of Dallas E-Check 122624 000000010369147 Pagoda Homes LLC</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA P REF #IB0QQ5MNHQ PLATINUM SAVINGS PARKS OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 120124 5114002634 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFZZ4SY PARKS TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 110124 5114002634 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3X2NP3 PARKS TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA P REF #IB0Q4C56CR PLATINUM SAVINGS OWNER CONTRIBUTION PARKS</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS276TG PLATINUM SAVINGS PAGODA 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>COLLIN COUNTY, T PAYMENT 241226 100314067400 COLLIN COUNTY, TX PROP</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121124 FC05X2 Pagoda Homes LLC (108</t>
+  </si>
+  <si>
+    <t>FREEDOM MTG PYMTS 120224 0129201927 NEERAJ GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFYXZ4X TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 111324 RCYBV2 Pagoda Homes LLC (108</t>
+  </si>
+  <si>
+    <t>FREEDOM MTG PYMTS 110124 0129201927 NEERAJ GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3Y6765 TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS26Y6L PLATINUM SAVINGS GARDENOAKS 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH County of Dallas E-Check 122624 000000010369149 Meadow View Homec LLC</t>
+  </si>
+  <si>
+    <t>IRVING ISD, TX T PAYMENT 241226 100314070834 IRVING ISD, TX TAX WEB</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121124 9C05X2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE CHASE ACH 120124 4027425045 MEADOW VIEW HOMES LLC</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 111324 MCYBV2 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE CHASE ACH 110124 4027425045 MEADOW VIEW HOMES LLC</t>
+  </si>
+  <si>
+    <t>Instant Pmt from PAGODA HOMES LLC on 12/31 Ref#20241231021000021P1BRJPC09760056951</t>
+  </si>
+  <si>
+    <t>ZELLE TO PAGODA HOMES LLC ON 12/31 REF #RP0YDBCCXM BASSWOOD OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS6M5DR BUSINESS CHECKING BRIANHILL 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS6JWBQ BUSINESS CHECKING RIVERSIDE 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS5PVTF BUSINESS CHECKING SIDNEY 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS5MZQV BUSINESS CHECKING WAGON8604 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS299B7 BUSINESS CHECKING BREWER 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MIDWAY INN LLC REF #IB0QS28XG3 BUSINESS CHECKING MIDWAY 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM PAGODA HOMES LLC REF #IB0QS28P5J BUSINESS CHECKING WINTERGREEN 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM PAGODA HOMES LLC REF #IB0QS28GM6 BUSINESS CHECKING ROSEMON 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM PAGODA HOMES LLC REF #IB0QS28BBS BUSINESS CHECKING NEWTON 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS283P3 BUSINESS MARKET RATE SAVING MV116 SAV 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS27NGC BUSINESS CHECKING MV116 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS27D2X BUSINESS CHECKING MV104 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM PAGODA HOMES LLC REF #IB0QS276TG BUSINESS CHECKING PAGODA 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM MEADOW VIEW HOMES LLC REF #IB0QS26Y6L BUSINESS MARKET RATE SAVING GARDENOAKS 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>Instant Pmt from PAGODA HOMES LLC on 12/30 Ref#20241230021000021P1BRJPC02640208943</t>
+  </si>
+  <si>
+    <t>Instant Pmt from PAGODA HOMES LLC on 12/30 Ref#20241230021000021P1BRJPC09760208176</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO PAGODA HOMES LLC REF #IB0QQ5SXVN BUSINESS MARKET RATE SAVING RIVERSIDE OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO MEADOW VIEW HOMES LLC REF #IB0QQ5NND5 BUSINESS CHECKING MV108 OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO PAGODA HOMES LLC REF #IB0QQ5MNHQ BUSINESS CHECKING PARKS OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM PAGODA HOMES LLC REF #IB0QQ5WP3C BUSINESS MARKET RATE SAVING REVERSAL RIVERSIDE OWNER CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO MEADOW VIEW HOMES LLC REF #IB0QHS7VGW BUSINESS CHECKING EDDY ESTATES MORTGAGE</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0QHSCW5T EVERYDAY CHECKING CHAKRI</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER REF #IB0QGQN9C9 TO VISA SIGNATURE CARD GOFUND DONATION FOR REALTOR</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0QGCTY9J EVERYDAY CHECKING OVERDRAFT XFER PMT 1126</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0QGCTWPZ EVERYDAY CHECKING OVERDRAFT XFER PMT 1120</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0QGCTVHT EVERYDAY CHECKING OVERDRAFT XFER PMT 1119</t>
+  </si>
+  <si>
+    <t>OVERDRAFT PROTECTION XFER TO CHECKING</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0Q7GHVZM EVERYDAY CHECKING CHAKRI 1111</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0Q5RXTFS EVERYDAY CHECKING CHAKRI 1011</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER FROM GUPTA N REF #IB0Q5RXS5N EVERYDAY CHECKING CHAKRI 0909</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO MEADOW VIEW HOMES LLC REF #IB0Q559RHZ BUSINESS CHECKING EDDY ESTATES MORTGAGE OCT NOV</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO PAGODA HOMES LLC REF #IB0Q4C56CR BUSINESS CHECKING OWNER CONTRIBUTION PARKS</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS299B7 PLATINUM SAVINGS BREWER 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH County of Dallas E-Check 122624 000000010369141 Meadow View Homes LLC</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121824 HFNPX2 Neeraj Gupta (Brewer)</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 120124 5114002633 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFZNWTF BREWER TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SERVICEMAC PMT MTGE PAYMT 110124 5114002633 PARUL GUPTA</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3Y8KWV BREWER TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ONLINE TRANSFER TO GUPTA P REF #IB0QS28P5J PLATINUM SAVINGS WINTERGREEN 2024 OWNERS DRAW</t>
+  </si>
+  <si>
+    <t>BUSINESS TO BUSINESS ACH County of Dallas E-Check 122624 000000010369144 Pagoda Homes LLC</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 121124 JC05X2 Pagoda Homes (Wintergr</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Dec 24 8028351602-0059 vivek jadhav</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0QFZMQHZ WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OnePlus Realty G SIGONFILE 111324 WCYBV2 Pagoda Homes (Wintergr</t>
+  </si>
+  <si>
+    <t>PENNYMAC CASH Nov 24 8028351602-0058 vivek jadhav</t>
+  </si>
+  <si>
+    <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0Q3XS3W4 WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:241227 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000028665710 EED:241230   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 3658665710TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:241128 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000021058545 EED:241129   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 3341058545TC</t>
+  </si>
+  <si>
+    <t>Online Realtime Transfer to WF-Pag-Sec Dep  3312 transaction#: 23230020710 reference#: 9230020710RX 12/31</t>
+  </si>
+  <si>
+    <t>Online Realtime Transfer to WF Joint x1242  1242 transaction#: 23224784056 reference#: 9224784056RX 12/31</t>
+  </si>
+  <si>
+    <t>Online Payment 22850202816 To CHASE HOME MORTGAGE 12/30</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241209 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000013141284 EED:241210   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3453141284TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241209 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000013140983 EED:241210   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3453140983TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241209 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000013141282 EED:241210   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3453141282TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CONSTELLATION EN       ORIG ID:0000000160 DESC DATE:241202 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000011446797 EED:241203   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3381446797TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CONSTELLATION EN       ORIG ID:0000000160 DESC DATE:241202 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000011446802 EED:241203   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3381446802TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CONSTELLATION EN       ORIG ID:0000000160 DESC DATE:241202 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000011446788 EED:241203   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3381446788TC</t>
+  </si>
+  <si>
+    <t>Online Payment 22550120282 To CHASE HOME MORTGAGE 11/27</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:111324 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926080393482 EED:241113   IND ID:NCYBV2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 3180393482TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241105 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010060700 EED:241106   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3110060700TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241105 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010060702 EED:241106   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3110060702TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:241105 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010060695 EED:241106   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3110060695TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CONSTELLATION EN       ORIG ID:0000000160 DESC DATE:241101 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000014253017 EED:241104   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3094253017TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:CONSTELLATION EN       ORIG ID:0000000160 DESC DATE:241101 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000014253023 EED:241104   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3094253023TC</t>
+  </si>
+  <si>
+    <t>Online Realtime Transfer to WF MV Sec Dep x3314  3314 transaction#: 23231522074 reference#: 9231522074RX 12/31</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:TARRANT COUNTY         ORIG ID:0000408976 DESC DATE:241224 CO ENTRY DESCR:TAX PMT   SEC:WEB    TRACE#:021000028654905 EED:241224   IND ID:2909435                      IND NAME:NEERAJ *GUPTA                                                                                                817-884-1100 TRN: 3598654905TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:121124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085386085 EED:241211   IND ID:8C05X2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 3465386085TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:120124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000024383575 EED:241202   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 3374383575TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:111324 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926080393485 EED:241113   IND ID:XCYBV2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 3180393485TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:110124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000022527506 EED:241101   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 3062527506TC</t>
+  </si>
+  <si>
+    <t>ZELLE PAYMENT TO TRULO PROPERTY MANAGEMENT LLC 22896688169</t>
+  </si>
+  <si>
+    <t>Online Realtime Transfer to WF MV Sec Dep x3314  3314 transaction#: 23230257890 reference#: 9230257890RX 12/31</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:DENTON COUNTY, T       ORIG ID:1810661988 DESC DATE:241226 CO ENTRY DESCR:   PAYMENTSEC:WEB    TRACE#:021000024635159 EED:241227   IND ID:   100314070903              IND NAME:DENTON COUNTY, TX TAX                                                                                              INCOMING BATCH TRN: 3624635159TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:121124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085386086 EED:241211   IND ID:HC05X2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 3465386086TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Dec 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000024561416 EED:241202   IND ID:8028351082-0060              IND NAME:8604 Wagon TRN: 3374561416TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:111324 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926080393484 EED:241113   IND ID:VCYBV2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 3180393484TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Nov 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000022146776 EED:241101   IND ID:8028351082-0059              IND NAME:8604 Wagon TRN: 3062146776TC</t>
+  </si>
+  <si>
+    <t>Online Realtime Transfer to WF MV Sec Dep x3314  3314 transaction#: 23231163365 reference#: 9231163365RX 12/31</t>
+  </si>
+  <si>
+    <t>Zelle payment from ONEPLUS REALTY GROUP LLC 23224549366</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:COLLIN COUNTY, T       ORIG ID:1810661988 DESC DATE:241226 CO ENTRY DESCR:   PAYMENTSEC:WEB    TRACE#:021000024635480 EED:241227   IND ID:   100314068017              IND NAME:COLLIN COUNTY, TX PROP                                                                                             INCOMING BATCH TRN: 3624635480TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:COLLIN COUNTY, T       ORIG ID:1810661988 DESC DATE:241226 CO ENTRY DESCR:   PAYMENTSEC:WEB    TRACE#:021000024635479 EED:241227   IND ID:   100314067929              IND NAME:COLLIN COUNTY, TX PROP                                                                                             INCOMING BATCH TRN: 3624635479TC</t>
+  </si>
+  <si>
+    <t>Online Realtime Transfer to WF MV Sec Dep x3314  3314 transaction#: 23230344203 reference#: 9230344203RX 12/31</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:County of Dallas       ORIG ID:1707900452 DESC DATE:122624 CO ENTRY DESCR:E-Check   SEC:CCD    TRACE#:021000024310050 EED:241227   IND ID:000000010369139              IND NAME:Meadow view Homes LLC                                                                                        DCTW CCD E-Check TRN: 3624310050TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:120124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000014296428 EED:241202   IND ID:                             IND NAME:PARUL GUPTA TRN: 3374296428TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:111324 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926080393483 EED:241113   IND ID:TCYBV2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 3180393483TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:110124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000014385448 EED:241101   IND ID:                             IND NAME:PARUL GUPTA TRN: 3064385448TC</t>
+  </si>
+  <si>
+    <t>Online Realtime Transfer to WF Joint x1242  1242 transaction#: 23224736899 reference#: 9224736899RX 12/31</t>
+  </si>
+  <si>
+    <t>Zelle payment from NEERAJ GUPTA WFCT0YDBCCXM</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:TARRANT COUNTY         ORIG ID:0000408976 DESC DATE:241224 CO ENTRY DESCR:TAX PMT   SEC:WEB    TRACE#:021000028693963 EED:241224   IND ID:2909435                      IND NAME:NEERAJ *GUPTA                                                                                                817-884-1100 TRN: 3598693963TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:121124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085386084 EED:241211   IND ID:7C05X2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 3465386084TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:241130 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000084103039 EED:241202   IND ID:                             IND NAME:JADHAV VIVEK TRN: 3374103039TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:111324 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926080393481 EED:241113   IND ID:LCYBV2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 3180393481TC</t>
+  </si>
+  <si>
+    <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:241031 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000080253527 EED:241101   IND ID:                             IND NAME:JADHAV VIVEK TRN: 3060253527TC</t>
   </si>
 </sst>
 </file>
@@ -630,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,13 +1078,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>-870</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -678,13 +1095,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>45581</v>
+        <v>45653</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>18515.24</v>
+        <v>38549.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -695,13 +1112,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>45580</v>
+        <v>45652</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>-83.29000000000001</v>
+        <v>-38549.3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -712,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>45575</v>
+        <v>45652</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>-1034.35</v>
+        <v>23095.36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -729,13 +1146,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>45572</v>
+        <v>45650</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>-11601.32</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -746,981 +1163,3429 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45566</v>
+        <v>45646</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>-1500</v>
+        <v>-579.16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>45574</v>
+        <v>45639</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>1378.81</v>
+        <v>-93.34999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>45566</v>
+        <v>45637</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>-748.9299999999999</v>
+        <v>-1220.33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>45566</v>
+        <v>45632</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>-75</v>
+        <v>-11601.32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>45574</v>
+        <v>45628</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>-150</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>45574</v>
+        <v>45616</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>1900</v>
+        <v>-718.75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>45566</v>
+        <v>45615</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>-456.02</v>
+        <v>-108.24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>45566</v>
+        <v>45609</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>-75</v>
+        <v>-83.29000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45608</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45596</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
       <c r="E15">
-        <v>0.01</v>
+        <v>-1210.15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>45574</v>
+        <v>45602</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>600</v>
+        <v>-11601.32</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>-563.38</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>45566</v>
+        <v>45632</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>-75</v>
+        <v>-947.3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>45586</v>
+        <v>45631</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>-395</v>
+        <v>947.3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>45574</v>
+        <v>45601</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>5364.41</v>
+        <v>-1894.6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>45567</v>
+        <v>45600</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>-963.16</v>
+        <v>1894.6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>45566</v>
+        <v>45656</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>-150</v>
+        <v>5544.62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>45574</v>
+        <v>45653</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>1975</v>
+        <v>-5713.13</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>45567</v>
+        <v>45653</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>-730.2</v>
+        <v>-5544.62</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
-        <v>45566</v>
+        <v>45650</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25">
-        <v>-75</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
-        <v>45596</v>
+        <v>45637</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>1568.98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
-        <v>45574</v>
+        <v>45628</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E27">
-        <v>150</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>45566</v>
+        <v>45628</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>-733.95</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>-75</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
-        <v>45574</v>
+        <v>45597</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E30">
-        <v>2025</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2">
-        <v>45566</v>
+        <v>45657</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>-726.97</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2">
-        <v>45566</v>
+        <v>45657</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>-75</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E33">
-        <v>0.13</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>45574</v>
+        <v>45657</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>2545</v>
+        <v>-7000</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2">
-        <v>45566</v>
+        <v>45657</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E35">
-        <v>-947.72</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E36">
-        <v>0.24</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E37">
-        <v>119.61</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2">
-        <v>45581</v>
+        <v>45657</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E38">
-        <v>2759</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2">
-        <v>45566</v>
+        <v>45657</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>-711.48</v>
+        <v>-7000</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2">
-        <v>45566</v>
+        <v>45656</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E40">
-        <v>-75</v>
+        <v>-5544.62</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2">
-        <v>45574</v>
+        <v>45637</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E41">
-        <v>2000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2">
-        <v>45567</v>
+        <v>45635</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>-694.01</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2">
-        <v>45566</v>
+        <v>45628</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E43">
-        <v>-75</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2">
-        <v>45594</v>
+        <v>45628</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E44">
-        <v>-28.17</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2">
-        <v>45596</v>
+        <v>45609</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E45">
-        <v>-1118.25</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2">
-        <v>45581</v>
+        <v>45608</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E46">
-        <v>1990.24</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2">
-        <v>45572</v>
+        <v>45597</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E47">
-        <v>-45.01</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2">
-        <v>45572</v>
+        <v>45597</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E48">
-        <v>-52.76</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2">
-        <v>45572</v>
+        <v>45657</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E49">
-        <v>-66.84999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2">
-        <v>45567</v>
+        <v>45650</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E50">
-        <v>-83.01000000000001</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C51" s="2">
-        <v>45567</v>
+        <v>45650</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E51">
-        <v>-90.78</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C52" s="2">
-        <v>45567</v>
+        <v>45625</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E52">
-        <v>-154.51</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>549</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2">
-        <v>45597</v>
+        <v>45657</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E53">
-        <v>-1383.06</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>550</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2">
-        <v>45581</v>
+        <v>45653</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E54">
-        <v>1449.04</v>
+        <v>-8402.82</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>551</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C55" s="2">
-        <v>45566</v>
+        <v>45628</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E55">
-        <v>-1383.06</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>649</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C56" s="2">
-        <v>45574</v>
+        <v>45628</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E56">
-        <v>2150</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>650</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2">
-        <v>45566</v>
+        <v>45609</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E57">
-        <v>-843.79</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>759</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2">
         <v>45597</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E58">
-        <v>-675.63</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>760</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>45574</v>
+        <v>45597</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E59">
-        <v>857.36</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>761</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2">
-        <v>45566</v>
+        <v>45657</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E60">
-        <v>-675.63</v>
+        <v>-18000</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>831</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
-        <v>45597</v>
+        <v>45653</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E61">
-        <v>-1383.06</v>
+        <v>-2454.53</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>832</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C62" s="2">
-        <v>45587</v>
+        <v>45652</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E62">
-        <v>3814</v>
+        <v>-2252.44</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>833</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2">
-        <v>45572</v>
+        <v>45652</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E63">
-        <v>-54.39</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>834</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65">
+        <v>-963.16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45608</v>
+      </c>
+      <c r="D68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45600</v>
+      </c>
+      <c r="D69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69">
+        <v>-963.16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71">
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72">
+        <v>-5544.62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73">
+        <v>1469.69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74">
+        <v>-730.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45600</v>
+      </c>
+      <c r="D76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76">
+        <v>-730.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D79" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45635</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45625</v>
+      </c>
+      <c r="D81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45608</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83">
+        <v>-6879.38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85">
+        <v>-733.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87">
+        <v>-733.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D88" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>114</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>118</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91">
+        <v>-5540.07</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>119</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93">
+        <v>-726.97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>121</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>122</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>123</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96">
+        <v>-726.97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>124</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>128</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D98" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D99" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100">
+        <v>-2935.67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>131</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101">
+        <v>-2658.59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D102" t="s">
+        <v>124</v>
+      </c>
+      <c r="E102">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103">
+        <v>-947.72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>134</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45625</v>
+      </c>
+      <c r="D104" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>135</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D105" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106">
+        <v>-947.72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>141</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D108" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45625</v>
+      </c>
+      <c r="D109" t="s">
+        <v>75</v>
+      </c>
+      <c r="E109">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>144</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110">
+        <v>121.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>145</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>146</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>147</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D113" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>148</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D114" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>149</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D115" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>150</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D116" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>151</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D117" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>152</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D118" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>154</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D120" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>155</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D121" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>156</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>157</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D123" t="s">
+        <v>141</v>
+      </c>
+      <c r="E123">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D124" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D125" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>160</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45656</v>
+      </c>
+      <c r="D126" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>161</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45656</v>
+      </c>
+      <c r="D127" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>162</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D128" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>163</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D129" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>164</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D130" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D131" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>166</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45631</v>
+      </c>
+      <c r="D132" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132">
+        <v>-947.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>167</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45631</v>
+      </c>
+      <c r="D133" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>168</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45629</v>
+      </c>
+      <c r="D134" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>169</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D135" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135">
+        <v>5282.99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>170</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>171</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D137" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137">
+        <v>345.46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>172</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45625</v>
+      </c>
+      <c r="D138" t="s">
+        <v>75</v>
+      </c>
+      <c r="E138">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>173</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45622</v>
+      </c>
+      <c r="D139" t="s">
+        <v>156</v>
+      </c>
+      <c r="E139">
+        <v>-5282.99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>174</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45616</v>
+      </c>
+      <c r="D140" t="s">
+        <v>156</v>
+      </c>
+      <c r="E140">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>175</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45615</v>
+      </c>
+      <c r="D141" t="s">
+        <v>156</v>
+      </c>
+      <c r="E141">
+        <v>-345.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>176</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45608</v>
+      </c>
+      <c r="D142" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>177</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45602</v>
+      </c>
+      <c r="D143" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>178</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45602</v>
+      </c>
+      <c r="D144" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>179</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45600</v>
+      </c>
+      <c r="D145" t="s">
+        <v>160</v>
+      </c>
+      <c r="E145">
+        <v>-1894.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>180</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D146" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>182</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D147" t="s">
+        <v>162</v>
+      </c>
+      <c r="E147">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>183</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D148" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148">
+        <v>-5360.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>184</v>
+      </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45644</v>
+      </c>
+      <c r="D149" t="s">
+        <v>164</v>
+      </c>
+      <c r="E149">
+        <v>4149.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>185</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D150" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150">
+        <v>-711.48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>186</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D151" t="s">
+        <v>166</v>
+      </c>
+      <c r="E151">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>187</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D152" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152">
+        <v>-711.48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>188</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D153" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>192</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D154" t="s">
+        <v>169</v>
+      </c>
+      <c r="E154">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>193</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D155" t="s">
+        <v>170</v>
+      </c>
+      <c r="E155">
+        <v>-4474.29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>194</v>
+      </c>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D156" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>195</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D157" t="s">
+        <v>172</v>
+      </c>
+      <c r="E157">
+        <v>-694.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>196</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D158" t="s">
+        <v>173</v>
+      </c>
+      <c r="E158">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>197</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D159" t="s">
+        <v>174</v>
+      </c>
+      <c r="E159">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>198</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45600</v>
+      </c>
+      <c r="D160" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160">
+        <v>-694.01</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>199</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D161" t="s">
+        <v>176</v>
+      </c>
+      <c r="E161">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>203</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45656</v>
+      </c>
+      <c r="D162" t="s">
+        <v>177</v>
+      </c>
+      <c r="E162">
+        <v>-41.69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>204</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45625</v>
+      </c>
+      <c r="D163" t="s">
+        <v>178</v>
+      </c>
+      <c r="E163">
+        <v>-28.22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>282</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D164" t="s">
+        <v>179</v>
+      </c>
+      <c r="E164">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>283</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D165" t="s">
+        <v>180</v>
+      </c>
+      <c r="E165">
+        <v>-14000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>284</v>
+      </c>
+      <c r="B166" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45656</v>
+      </c>
+      <c r="D166" t="s">
+        <v>181</v>
+      </c>
+      <c r="E166">
+        <v>-1118.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>285</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45636</v>
+      </c>
+      <c r="D167" t="s">
+        <v>182</v>
+      </c>
+      <c r="E167">
+        <v>-46.95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>286</v>
+      </c>
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45636</v>
+      </c>
+      <c r="D168" t="s">
+        <v>183</v>
+      </c>
+      <c r="E168">
+        <v>-50.19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>287</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45636</v>
+      </c>
+      <c r="D169" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169">
+        <v>-69.43000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>288</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45629</v>
+      </c>
+      <c r="D170" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170">
+        <v>-47.55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>289</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45629</v>
+      </c>
+      <c r="D171" t="s">
+        <v>186</v>
+      </c>
+      <c r="E171">
+        <v>-54.13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>290</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45629</v>
+      </c>
+      <c r="D172" t="s">
+        <v>187</v>
+      </c>
+      <c r="E172">
+        <v>-92.14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>291</v>
+      </c>
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45623</v>
+      </c>
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173">
+        <v>-1118.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>292</v>
+      </c>
+      <c r="B174" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D174" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174">
+        <v>2961.64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>293</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45602</v>
+      </c>
+      <c r="D175" t="s">
+        <v>190</v>
+      </c>
+      <c r="E175">
+        <v>-45.66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>294</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45602</v>
+      </c>
+      <c r="D176" t="s">
+        <v>191</v>
+      </c>
+      <c r="E176">
+        <v>-66.20999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>295</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45602</v>
+      </c>
+      <c r="D177" t="s">
+        <v>192</v>
+      </c>
+      <c r="E177">
+        <v>-75.81999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>296</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45600</v>
+      </c>
+      <c r="D178" t="s">
+        <v>193</v>
+      </c>
+      <c r="E178">
+        <v>-67.65000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>297</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45600</v>
+      </c>
+      <c r="D179" t="s">
+        <v>194</v>
+      </c>
+      <c r="E179">
+        <v>-134.34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>591</v>
+      </c>
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D180" t="s">
+        <v>195</v>
+      </c>
+      <c r="E180">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>592</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D181" t="s">
+        <v>196</v>
+      </c>
+      <c r="E181">
+        <v>-10781.81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>593</v>
+      </c>
+      <c r="B182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D182" t="s">
+        <v>197</v>
+      </c>
+      <c r="E182">
+        <v>323.39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>594</v>
+      </c>
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D183" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183">
+        <v>-1383.06</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>595</v>
+      </c>
+      <c r="B184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D184" t="s">
+        <v>199</v>
+      </c>
+      <c r="E184">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>596</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D185" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185">
+        <v>-1383.06</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>684</v>
+      </c>
+      <c r="B186" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="2">
-        <v>45566</v>
-      </c>
-      <c r="D64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64">
+      <c r="C186" s="2">
+        <v>45659</v>
+      </c>
+      <c r="D186" t="s">
+        <v>201</v>
+      </c>
+      <c r="E186">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>685</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D187" t="s">
+        <v>202</v>
+      </c>
+      <c r="E187">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>686</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D188" t="s">
+        <v>203</v>
+      </c>
+      <c r="E188">
+        <v>-5616.76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>687</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D189" t="s">
+        <v>204</v>
+      </c>
+      <c r="E189">
+        <v>1846.36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>688</v>
+      </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D190" t="s">
+        <v>205</v>
+      </c>
+      <c r="E190">
+        <v>-843.79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>689</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D191" t="s">
+        <v>206</v>
+      </c>
+      <c r="E191">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>690</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D192" t="s">
+        <v>207</v>
+      </c>
+      <c r="E192">
+        <v>-843.79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>754</v>
+      </c>
+      <c r="B193" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D193" t="s">
+        <v>208</v>
+      </c>
+      <c r="E193">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>755</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45656</v>
+      </c>
+      <c r="D194" t="s">
+        <v>209</v>
+      </c>
+      <c r="E194">
+        <v>3393.94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>756</v>
+      </c>
+      <c r="B195" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D195" t="s">
+        <v>210</v>
+      </c>
+      <c r="E195">
+        <v>-1640.56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>757</v>
+      </c>
+      <c r="B196" t="s">
+        <v>26</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D196" t="s">
+        <v>211</v>
+      </c>
+      <c r="E196">
+        <v>-2437.01</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>782</v>
+      </c>
+      <c r="B197" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D197" t="s">
+        <v>212</v>
+      </c>
+      <c r="E197">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>783</v>
+      </c>
+      <c r="B198" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45653</v>
+      </c>
+      <c r="D198" t="s">
+        <v>213</v>
+      </c>
+      <c r="E198">
+        <v>-4553.78</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>784</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D199" t="s">
+        <v>214</v>
+      </c>
+      <c r="E199">
+        <v>-675.63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>785</v>
+      </c>
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D200" t="s">
+        <v>215</v>
+      </c>
+      <c r="E200">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>786</v>
+      </c>
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D201" t="s">
+        <v>216</v>
+      </c>
+      <c r="E201">
+        <v>-675.63</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>847</v>
+      </c>
+      <c r="B202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D202" t="s">
+        <v>217</v>
+      </c>
+      <c r="E202">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>848</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45657</v>
+      </c>
+      <c r="D203" t="s">
+        <v>218</v>
+      </c>
+      <c r="E203">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>849</v>
+      </c>
+      <c r="B204" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D204" t="s">
+        <v>219</v>
+      </c>
+      <c r="E204">
+        <v>-10835.71</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>850</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D205" t="s">
+        <v>220</v>
+      </c>
+      <c r="E205">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>851</v>
+      </c>
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D206" t="s">
+        <v>221</v>
+      </c>
+      <c r="E206">
+        <v>-1383.06</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>852</v>
+      </c>
+      <c r="B207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D207" t="s">
+        <v>222</v>
+      </c>
+      <c r="E207">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>853</v>
+      </c>
+      <c r="B208" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D208" t="s">
+        <v>223</v>
+      </c>
+      <c r="E208">
         <v>-1383.06</v>
       </c>
     </row>
